--- a/data/Exp_data/Growth_pHcontrol_B.xlsx
+++ b/data/Exp_data/Growth_pHcontrol_B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LbPtEPS\data\Exp_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC294D-D60F-4396-A71A-0CE70008CDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C92477-813F-4CA5-AE17-9EED7706B364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time</t>
   </si>
@@ -61,33 +61,6 @@
   </si>
   <si>
     <t>EPS_B3</t>
-  </si>
-  <si>
-    <t>Glu_B1</t>
-  </si>
-  <si>
-    <t>Glu_B2</t>
-  </si>
-  <si>
-    <t>Glu_B3</t>
-  </si>
-  <si>
-    <t>Lac_B1</t>
-  </si>
-  <si>
-    <t>Lac_B2</t>
-  </si>
-  <si>
-    <t>Lac_B3</t>
-  </si>
-  <si>
-    <t>Ac_B1</t>
-  </si>
-  <si>
-    <t>Ac_B2</t>
-  </si>
-  <si>
-    <t>Ac_B3</t>
   </si>
 </sst>
 </file>
@@ -414,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,305 +420,838 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>6.5</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="1">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.10020000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.10339999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.5</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C3" s="1">
+        <v>0.24090000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.2472</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.24739999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="H3" s="1">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>6.5</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C4" s="1">
+        <v>0.78490000000000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50.54</v>
+      </c>
+      <c r="H4" s="1">
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5">
         <v>6.5</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C5" s="1">
+        <v>1.4964999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5261</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.5324</v>
+      </c>
+      <c r="F5" s="1">
+        <v>82.34</v>
+      </c>
+      <c r="G5" s="1">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="H5" s="1">
+        <v>81.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6">
         <v>6.5</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
+        <v>1.8086</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.8170999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.8333999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>115.38</v>
+      </c>
+      <c r="G6" s="1">
+        <v>114.05</v>
+      </c>
+      <c r="H6" s="1">
+        <v>115.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
         <v>6.5</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C7" s="1">
+        <v>1.7571999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.7573999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.7322</v>
+      </c>
+      <c r="F7" s="1">
+        <v>115.38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>116.47</v>
+      </c>
+      <c r="H7" s="1">
+        <v>115.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12</v>
       </c>
       <c r="B8">
         <v>6.5</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <v>1.7212999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.7060999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.7057</v>
+      </c>
+      <c r="F8" s="1">
+        <v>105.7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>104.89</v>
+      </c>
+      <c r="H8" s="1">
+        <v>105.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9">
         <v>6.5</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C9" s="1">
+        <v>1.6405999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.6236999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.6264999999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>113.93</v>
+      </c>
+      <c r="G9" s="1">
+        <v>113.78</v>
+      </c>
+      <c r="H9" s="1">
+        <v>112.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C10" s="1">
+        <v>0.1002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1022</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.1018</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C11" s="1">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="G11" s="1">
+        <v>23.43</v>
+      </c>
+      <c r="H11" s="1">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C12" s="1">
+        <v>0.48580000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.49419999999999997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.4955</v>
+      </c>
+      <c r="F12" s="1">
+        <v>67.16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>68.91</v>
+      </c>
+      <c r="H12" s="1">
+        <v>67.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C13" s="1">
+        <v>1.1289</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.1102000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.1164000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>92.16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>93.75</v>
+      </c>
+      <c r="H13" s="1">
+        <v>94.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C14" s="1">
+        <v>1.5284</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.5481</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.5472999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>126.05</v>
+      </c>
+      <c r="G14" s="1">
+        <v>123.48</v>
+      </c>
+      <c r="H14" s="1">
+        <v>125.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.7312000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.7059</v>
+      </c>
+      <c r="F15" s="1">
+        <v>106.58</v>
+      </c>
+      <c r="G15" s="1">
+        <v>107.3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>106.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="1">
+        <v>1.5081</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.5121</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.5128999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>118.85</v>
+      </c>
+      <c r="G16" s="1">
+        <v>119.69</v>
+      </c>
+      <c r="H16" s="1">
+        <v>121.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="1">
+        <v>1.4495</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.4737</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.4955000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>81.58</v>
+      </c>
+      <c r="G17" s="1">
+        <v>82.84</v>
+      </c>
+      <c r="H17" s="1">
+        <v>82.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="1">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="1">
+        <v>0.1663</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>28.11</v>
+      </c>
+      <c r="G19" s="1">
+        <v>28.78</v>
+      </c>
+      <c r="H19" s="1">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="G20" s="1">
+        <v>34.24</v>
+      </c>
+      <c r="H20" s="1">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.8508</v>
+      </c>
+      <c r="F21" s="1">
+        <v>48.84</v>
+      </c>
+      <c r="G21" s="1">
+        <v>47.95</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <v>1.2318</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.2684</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.2881</v>
+      </c>
+      <c r="F22" s="1">
+        <v>64.28</v>
+      </c>
+      <c r="G22" s="1">
+        <v>62.98</v>
+      </c>
+      <c r="H22" s="1">
+        <v>66.040000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1">
+        <v>1.5853999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.5875999999999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.5911999999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>83.02</v>
+      </c>
+      <c r="G23" s="1">
+        <v>82.99</v>
+      </c>
+      <c r="H23" s="1">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="1">
+        <v>1.5262</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.5656000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G24" s="1">
+        <v>74.69</v>
+      </c>
+      <c r="H24" s="1">
+        <v>76.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>14</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C25" s="1">
+        <v>1.4624999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.6065</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.5002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>74.95</v>
+      </c>
+      <c r="G25" s="1">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="H25" s="1">
+        <v>73.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26">
         <v>4.5</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C26" s="1">
+        <v>0.1386</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27">
         <v>4.5</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C27" s="1">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>25.42</v>
+      </c>
+      <c r="G27" s="1">
+        <v>24.89</v>
+      </c>
+      <c r="H27" s="1">
+        <v>28.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28">
         <v>4.5</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C28" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>26.125</v>
+      </c>
+      <c r="G28" s="1">
+        <v>24.89</v>
+      </c>
+      <c r="H28" s="1">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29">
         <v>4.5</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C29" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.6492</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>38.28</v>
+      </c>
+      <c r="H29" s="1">
+        <v>40.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30">
         <v>4.5</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="F30" s="1">
+        <v>55.69</v>
+      </c>
+      <c r="G30" s="1">
+        <v>53.89</v>
+      </c>
+      <c r="H30" s="1">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <v>4.5</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="1">
+        <v>1.2903</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.3170999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.3138000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>55.36</v>
+      </c>
+      <c r="G31" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>54.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>12</v>
       </c>
       <c r="B32">
         <v>4.5</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C32" s="1">
+        <v>1.4717</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.4574</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="F32" s="1">
+        <v>48.45</v>
+      </c>
+      <c r="G32" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33">
         <v>4.5</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>1.6287</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.5485</v>
+      </c>
+      <c r="F33" s="1">
+        <v>53.38</v>
+      </c>
+      <c r="G33" s="1">
+        <v>52.59</v>
+      </c>
+      <c r="H33" s="1">
+        <v>54.49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
